--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H2">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I2">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J2">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N2">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O2">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P2">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q2">
-        <v>25.415525168515</v>
+        <v>17.54006263117511</v>
       </c>
       <c r="R2">
-        <v>228.739726516635</v>
+        <v>157.860563680576</v>
       </c>
       <c r="S2">
-        <v>0.0014907377743094</v>
+        <v>0.0009002301280875312</v>
       </c>
       <c r="T2">
-        <v>0.001615683521700523</v>
+        <v>0.0009770971178382113</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H3">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I3">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J3">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P3">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q3">
-        <v>298.671025337051</v>
+        <v>266.1949133963446</v>
       </c>
       <c r="R3">
-        <v>2688.039228033459</v>
+        <v>2395.754220567102</v>
       </c>
       <c r="S3">
-        <v>0.01751843318639072</v>
+        <v>0.01366224773662544</v>
       </c>
       <c r="T3">
-        <v>0.01898673550308022</v>
+        <v>0.01482881151179419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H4">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I4">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J4">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N4">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O4">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P4">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q4">
-        <v>647.2184675250165</v>
+        <v>800.0110425365096</v>
       </c>
       <c r="R4">
-        <v>5824.96620772515</v>
+        <v>7200.099382828587</v>
       </c>
       <c r="S4">
-        <v>0.0379623482644155</v>
+        <v>0.04105994707305281</v>
       </c>
       <c r="T4">
-        <v>0.04114415130071199</v>
+        <v>0.044565888978744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H5">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I5">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J5">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N5">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O5">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P5">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q5">
-        <v>252.875049986686</v>
+        <v>248.9616335368899</v>
       </c>
       <c r="R5">
-        <v>1517.250299920116</v>
+        <v>1493.76980122134</v>
       </c>
       <c r="S5">
-        <v>0.01483228800884764</v>
+        <v>0.01277776299666384</v>
       </c>
       <c r="T5">
-        <v>0.01071696790586934</v>
+        <v>0.009245869477829065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H6">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I6">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J6">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N6">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O6">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P6">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q6">
-        <v>791.0007039050549</v>
+        <v>560.8236460390661</v>
       </c>
       <c r="R6">
-        <v>7119.006335145495</v>
+        <v>5047.412814351595</v>
       </c>
       <c r="S6">
-        <v>0.04639583959010075</v>
+        <v>0.02878383922135634</v>
       </c>
       <c r="T6">
-        <v>0.05028449321740239</v>
+        <v>0.03124157419975965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>71.222432</v>
       </c>
       <c r="I7">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J7">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N7">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O7">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P7">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q7">
-        <v>42.93917332442667</v>
+        <v>33.24903699308089</v>
       </c>
       <c r="R7">
-        <v>386.45255991984</v>
+        <v>299.241332937728</v>
       </c>
       <c r="S7">
-        <v>0.002518580562389436</v>
+        <v>0.00170648106910796</v>
       </c>
       <c r="T7">
-        <v>0.002729674650267021</v>
+        <v>0.001852190548002557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>71.222432</v>
       </c>
       <c r="I8">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J8">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P8">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q8">
         <v>504.6005085041173</v>
@@ -948,10 +948,10 @@
         <v>4541.404576537056</v>
       </c>
       <c r="S8">
-        <v>0.02959714717580125</v>
+        <v>0.02589823023757707</v>
       </c>
       <c r="T8">
-        <v>0.03207782334719479</v>
+        <v>0.02810957479950783</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>71.222432</v>
       </c>
       <c r="I9">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J9">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N9">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O9">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P9">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q9">
-        <v>1093.466523770844</v>
+        <v>1516.505231907918</v>
       </c>
       <c r="R9">
-        <v>9841.198713937598</v>
+        <v>13648.54708717126</v>
       </c>
       <c r="S9">
-        <v>0.06413685497820576</v>
+        <v>0.07783345634920423</v>
       </c>
       <c r="T9">
-        <v>0.06951246658386216</v>
+        <v>0.08447933866838893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>71.222432</v>
       </c>
       <c r="I10">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J10">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N10">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O10">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P10">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q10">
-        <v>427.2288504292906</v>
+        <v>471.9330105819199</v>
       </c>
       <c r="R10">
-        <v>2563.373102575743</v>
+        <v>2831.598063491519</v>
       </c>
       <c r="S10">
-        <v>0.025058942571004</v>
+        <v>0.02422159621082453</v>
       </c>
       <c r="T10">
-        <v>0.01810616697358331</v>
+        <v>0.01752651987428739</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>71.222432</v>
       </c>
       <c r="I11">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J11">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N11">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O11">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P11">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q11">
-        <v>1336.38459561712</v>
+        <v>1063.10031758981</v>
       </c>
       <c r="R11">
-        <v>12027.46136055408</v>
+        <v>9567.902858308287</v>
       </c>
       <c r="S11">
-        <v>0.07838512029488134</v>
+        <v>0.05456280032733568</v>
       </c>
       <c r="T11">
-        <v>0.08495494606059939</v>
+        <v>0.0592216959615439</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H12">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I12">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J12">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N12">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O12">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P12">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q12">
-        <v>59.61299551166667</v>
+        <v>57.44650502270578</v>
       </c>
       <c r="R12">
-        <v>536.516959605</v>
+        <v>517.018545204352</v>
       </c>
       <c r="S12">
-        <v>0.00349657713778301</v>
+        <v>0.002948397372473164</v>
       </c>
       <c r="T12">
-        <v>0.003789641720515143</v>
+        <v>0.003200149034120274</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H13">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I13">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J13">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P13">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q13">
-        <v>700.5432457063332</v>
+        <v>871.8308338456226</v>
       </c>
       <c r="R13">
-        <v>6304.889211356999</v>
+        <v>7846.477504610604</v>
       </c>
       <c r="S13">
-        <v>0.04109009245283918</v>
+        <v>0.04474604223068972</v>
       </c>
       <c r="T13">
-        <v>0.04453404644687328</v>
+        <v>0.04856672481197242</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H14">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I14">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J14">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N14">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O14">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P14">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q14">
-        <v>1518.073356494444</v>
+        <v>2620.163869404309</v>
       </c>
       <c r="R14">
-        <v>13662.66020845</v>
+        <v>23581.47482463878</v>
       </c>
       <c r="S14">
-        <v>0.08904200411732652</v>
+        <v>0.1344778810294439</v>
       </c>
       <c r="T14">
-        <v>0.09650503346116722</v>
+        <v>0.1459604004211726</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H15">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I15">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J15">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N15">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O15">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P15">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q15">
-        <v>593.1271976446666</v>
+        <v>815.38909137178</v>
       </c>
       <c r="R15">
-        <v>3558.763185867999</v>
+        <v>4892.33454823068</v>
       </c>
       <c r="S15">
-        <v>0.03478964580257951</v>
+        <v>0.04184921351775218</v>
       </c>
       <c r="T15">
-        <v>0.02513701981113119</v>
+        <v>0.03028169845034385</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H16">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I16">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J16">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N16">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O16">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P16">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q16">
-        <v>1855.319577265</v>
+        <v>1836.786964590044</v>
       </c>
       <c r="R16">
-        <v>16697.876195385</v>
+        <v>16531.08268131039</v>
       </c>
       <c r="S16">
-        <v>0.1088230504349749</v>
+        <v>0.09427166819025339</v>
       </c>
       <c r="T16">
-        <v>0.1179440223485489</v>
+        <v>0.1023211425707144</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H17">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I17">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J17">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N17">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O17">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P17">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q17">
-        <v>23.9026917462425</v>
+        <v>19.729880447136</v>
       </c>
       <c r="R17">
-        <v>143.416150477455</v>
+        <v>118.379282682816</v>
       </c>
       <c r="S17">
-        <v>0.001402003116502164</v>
+        <v>0.001012620831268205</v>
       </c>
       <c r="T17">
-        <v>0.001013007729793256</v>
+        <v>0.0007327229374093944</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H18">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I18">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J18">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>63.763683</v>
       </c>
       <c r="O18">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P18">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q18">
-        <v>280.8929347251745</v>
+        <v>299.428452872847</v>
       </c>
       <c r="R18">
-        <v>1685.357608351047</v>
+        <v>1796.570717237082</v>
       </c>
       <c r="S18">
-        <v>0.01647566617471193</v>
+        <v>0.01536793340769932</v>
       </c>
       <c r="T18">
-        <v>0.01190437952100708</v>
+        <v>0.01112009249730607</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H19">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I19">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J19">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N19">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O19">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P19">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q19">
-        <v>608.6934430491583</v>
+        <v>899.8897300161181</v>
       </c>
       <c r="R19">
-        <v>3652.160658294949</v>
+        <v>5399.338380096709</v>
       </c>
       <c r="S19">
-        <v>0.03570267789122558</v>
+        <v>0.04618614334233936</v>
       </c>
       <c r="T19">
-        <v>0.02579672488058587</v>
+        <v>0.03341986020080884</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H20">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I20">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J20">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N20">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O20">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P20">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q20">
-        <v>237.8229184748569</v>
+        <v>280.043655994485</v>
       </c>
       <c r="R20">
-        <v>951.2916738994278</v>
+        <v>1120.17462397794</v>
       </c>
       <c r="S20">
-        <v>0.01394941107123654</v>
+        <v>0.01437302372329818</v>
       </c>
       <c r="T20">
-        <v>0.006719367489225518</v>
+        <v>0.006933456786452757</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H21">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I21">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J21">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N21">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O21">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P21">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q21">
-        <v>743.9171872759724</v>
+        <v>630.8405916756061</v>
       </c>
       <c r="R21">
-        <v>4463.503123655834</v>
+        <v>3785.043550053636</v>
       </c>
       <c r="S21">
-        <v>0.04363417417807736</v>
+        <v>0.03237740472132498</v>
       </c>
       <c r="T21">
-        <v>0.0315275730882938</v>
+        <v>0.02342798642942249</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H22">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I22">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J22">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N22">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O22">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P22">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q22">
-        <v>63.15162024841501</v>
+        <v>52.51749286542223</v>
       </c>
       <c r="R22">
-        <v>568.364582235735</v>
+        <v>472.6574357888</v>
       </c>
       <c r="S22">
-        <v>0.003704133799673724</v>
+        <v>0.002695419641492332</v>
       </c>
       <c r="T22">
-        <v>0.004014594682877249</v>
+        <v>0.002925570563453285</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H23">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I23">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J23">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>63.763683</v>
       </c>
       <c r="O23">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P23">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q23">
-        <v>742.1274613147109</v>
+        <v>797.0261999097334</v>
       </c>
       <c r="R23">
-        <v>6679.147151832399</v>
+        <v>7173.235799187601</v>
       </c>
       <c r="S23">
-        <v>0.04352919849575623</v>
+        <v>0.04090675233727986</v>
       </c>
       <c r="T23">
-        <v>0.04717758544423105</v>
+        <v>0.04439961356746695</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H24">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I24">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J24">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N24">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O24">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P24">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q24">
-        <v>1608.18612276935</v>
+        <v>2395.349155937156</v>
       </c>
       <c r="R24">
-        <v>14473.67510492415</v>
+        <v>21558.1424034344</v>
       </c>
       <c r="S24">
-        <v>0.09432753348344525</v>
+        <v>0.1229394400012583</v>
       </c>
       <c r="T24">
-        <v>0.1022335679140212</v>
+        <v>0.1334367388359539</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H25">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I25">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J25">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N25">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O25">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P25">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q25">
-        <v>628.3352014634459</v>
+        <v>745.4272591820001</v>
       </c>
       <c r="R25">
-        <v>3770.011208780676</v>
+        <v>4472.563555092</v>
       </c>
       <c r="S25">
-        <v>0.03685475761524841</v>
+        <v>0.03825847667274785</v>
       </c>
       <c r="T25">
-        <v>0.02662915217838311</v>
+        <v>0.02768347494230024</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H26">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I26">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J26">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N26">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O26">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P26">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q26">
-        <v>1965.451264061355</v>
+        <v>1679.187380851645</v>
       </c>
       <c r="R26">
-        <v>17689.0613765522</v>
+        <v>15112.6864276648</v>
       </c>
       <c r="S26">
-        <v>0.1152827818222737</v>
+        <v>0.08618299163084389</v>
       </c>
       <c r="T26">
-        <v>0.1249451742190751</v>
+        <v>0.09354180681340672</v>
       </c>
     </row>
   </sheetData>
